--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/MONTANA_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/MONTANA_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C13">
@@ -615,7 +615,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -742,7 +742,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C28">
@@ -786,7 +786,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C30">
@@ -843,7 +843,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C34">
@@ -915,7 +915,7 @@
         <v>10</v>
       </c>
       <c r="D39">
-        <v>0.09523809523809523</v>
+        <v>0.09523809523809525</v>
       </c>
     </row>
     <row r="40">
@@ -926,7 +926,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C40">
@@ -939,7 +939,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C41">
@@ -952,7 +952,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C42">
@@ -978,7 +978,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C44">
@@ -1035,7 +1035,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C48">
@@ -1144,7 +1144,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C56">
@@ -1170,7 +1170,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C58">
@@ -1372,7 +1372,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C72">
@@ -1416,7 +1416,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C75">
@@ -1822,7 +1822,7 @@
         <v>10</v>
       </c>
       <c r="D103">
-        <v>0.09523809523809523</v>
+        <v>0.09523809523809525</v>
       </c>
     </row>
     <row r="104">
@@ -1836,76 +1836,6 @@
       </c>
       <c r="D104">
         <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/MONTANA_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/MONTANA_2016.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Escárcega</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Gómez Farías</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -631,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -644,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -657,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -670,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -701,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Tamazula</t>
@@ -714,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Tepehuanes</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -758,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -784,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -810,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Total</t>
@@ -841,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -867,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>León</t>
@@ -880,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -906,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Total</t>
@@ -937,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -950,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -963,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>General Heliodoro Castillo</t>
@@ -976,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -989,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1020,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -1033,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -1046,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1077,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -1090,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -1103,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1116,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>La Huerta</t>
@@ -1129,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -1142,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -1155,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Villa Purificación</t>
@@ -1168,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Zapotitlán De Vadillo</t>
@@ -1181,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1212,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Copándaro</t>
@@ -1225,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -1238,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -1251,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Ziracuaretiro</t>
@@ -1264,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1295,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1326,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>San Juan Mixtepec -Distrito 08-</t>
@@ -1339,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1370,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Tepexi De Rodríguez</t>
@@ -1383,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1414,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -1427,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -1440,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1471,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1502,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Salvador Alvarado</t>
@@ -1515,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1546,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -1559,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1590,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1621,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1652,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Altotonga</t>
@@ -1665,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Chinameca</t>
@@ -1678,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -1691,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -1704,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -1717,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1748,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Juan Aldama</t>
@@ -1761,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Loreto</t>
@@ -1774,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Miguel Auza</t>
@@ -1787,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -1800,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -1813,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Total</t>
